--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1111166.525976604</v>
+        <v>-1114026.358211873</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>39.70122005612001</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>136.6676613092104</v>
+        <v>121.0063721385416</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.14763101073946</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>382.6612299361364</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489922</v>
+        <v>382.6612299361364</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.66253762724392</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>357.2944451665062</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075469</v>
+        <v>97.35224439075478</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295507</v>
+        <v>46.46465121295538</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238386</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442028</v>
+        <v>1.170719916324606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>86.34847329768495</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6812911965983</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>89.28327366123646</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>128.710898906592</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>302.232617020682</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>92.30935033272195</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>168.3683752325398</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>155.5197366720834</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>53.31918497316837</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>113.8415422301047</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.665762779849642</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>149.8873540667183</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.31547498186427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,19 +2530,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>187.6310928806075</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>253.6152909710897</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>153.2646806878225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>221.2030256723189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652662</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323105</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323105</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897905</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897905</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487954</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487954</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487954</v>
+        <v>371.2627786323104</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.6344209122192</v>
+        <v>386.4938118805608</v>
       </c>
       <c r="C3" t="n">
-        <v>422.6344209122192</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="D3" t="n">
-        <v>422.6344209122192</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487954</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487954</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="Y3" t="n">
-        <v>422.6344209122192</v>
+        <v>554.7091489006289</v>
       </c>
     </row>
     <row r="4">
@@ -4471,7 +4471,7 @@
         <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>794.1603738792908</v>
+        <v>803.6658881648634</v>
       </c>
       <c r="C5" t="n">
-        <v>794.1603738792908</v>
+        <v>803.6658881648634</v>
       </c>
       <c r="D5" t="n">
-        <v>435.8946752725402</v>
+        <v>803.6658881648634</v>
       </c>
       <c r="E5" t="n">
-        <v>50.106422674296</v>
+        <v>803.6658881648634</v>
       </c>
       <c r="F5" t="n">
-        <v>43.16092192509253</v>
+        <v>417.1393932798771</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6128983948913</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6128983948913</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6128983948913</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121564</v>
+        <v>93.38580827121359</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235858</v>
+        <v>238.2046462235817</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190664</v>
+        <v>454.7669823190595</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643118</v>
+        <v>727.403745764302</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453895</v>
+        <v>1009.065865453882</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831938</v>
+        <v>1261.696156831922</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855782</v>
+        <v>1442.809264855765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744565</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744565</v>
+        <v>1495.632255474602</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744565</v>
+        <v>1495.632255474602</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744565</v>
+        <v>1495.632255474602</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.644919744565</v>
+        <v>1495.632255474602</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.644919744565</v>
+        <v>1164.569368131031</v>
       </c>
       <c r="W5" t="n">
-        <v>1177.876264474451</v>
+        <v>1164.569368131031</v>
       </c>
       <c r="X5" t="n">
-        <v>804.410506213371</v>
+        <v>1164.569368131031</v>
       </c>
       <c r="Y5" t="n">
-        <v>804.410506213371</v>
+        <v>803.6658881648634</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.5912674800026</v>
+        <v>658.5073838616238</v>
       </c>
       <c r="C6" t="n">
-        <v>459.5912674800026</v>
+        <v>484.0543545804968</v>
       </c>
       <c r="D6" t="n">
-        <v>459.5912674800026</v>
+        <v>335.1199449192455</v>
       </c>
       <c r="E6" t="n">
-        <v>459.5912674800026</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="F6" t="n">
-        <v>313.0567095068876</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="G6" t="n">
-        <v>175.88248991379</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908834</v>
+        <v>77.54688951908827</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6128983948913</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275338</v>
+        <v>49.18216652275214</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477057</v>
+        <v>159.074828147703</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543733</v>
+        <v>353.1616144543686</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642259</v>
+        <v>599.0086077642191</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621778</v>
+        <v>865.7710843621686</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970549</v>
+        <v>1087.586838970538</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422854</v>
+        <v>1246.280471422841</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680492</v>
+        <v>1302.443765680478</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680492</v>
+        <v>1251.938857051807</v>
       </c>
       <c r="S6" t="n">
-        <v>1157.939691595439</v>
+        <v>1250.756311681782</v>
       </c>
       <c r="T6" t="n">
-        <v>1157.939691595439</v>
+        <v>1054.843930867389</v>
       </c>
       <c r="U6" t="n">
-        <v>1157.939691595439</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="V6" t="n">
-        <v>922.7875833636961</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="W6" t="n">
-        <v>922.7875833636961</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="X6" t="n">
-        <v>835.5669032650244</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="Y6" t="n">
-        <v>627.8066045000705</v>
+        <v>826.7227208816919</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.7980233052312</v>
+        <v>178.525991977284</v>
       </c>
       <c r="C7" t="n">
-        <v>120.7980233052312</v>
+        <v>178.525991977284</v>
       </c>
       <c r="D7" t="n">
-        <v>120.7980233052312</v>
+        <v>178.525991977284</v>
       </c>
       <c r="E7" t="n">
-        <v>120.7980233052312</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="F7" t="n">
-        <v>120.7980233052312</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="G7" t="n">
-        <v>120.7980233052312</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="H7" t="n">
-        <v>30.6128983948913</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="I7" t="n">
-        <v>30.6128983948913</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6128983948913</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713289</v>
+        <v>51.49054881713163</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363491</v>
+        <v>108.1125511363467</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055995</v>
+        <v>171.0707966055959</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221369</v>
+        <v>240.3895616221321</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645264</v>
+        <v>284.1035717645206</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="W7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="X7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
       <c r="Y7" t="n">
-        <v>302.4464881354709</v>
+        <v>302.4464881354642</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1272.720081405892</v>
+        <v>724.5626859657709</v>
       </c>
       <c r="C8" t="n">
-        <v>903.7575644654803</v>
+        <v>355.6001690253592</v>
       </c>
       <c r="D8" t="n">
-        <v>773.7465554689227</v>
+        <v>355.6001690253592</v>
       </c>
       <c r="E8" t="n">
-        <v>773.7465554689227</v>
+        <v>355.6001690253592</v>
       </c>
       <c r="F8" t="n">
-        <v>766.8010547197192</v>
+        <v>348.6546682761557</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>1837.396939561087</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642784</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.859413381704</v>
+        <v>1111.162526029893</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.720081405892</v>
+        <v>1111.162526029893</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.9915800697039</v>
+        <v>767.9840153902088</v>
       </c>
       <c r="C9" t="n">
-        <v>620.5385507885769</v>
+        <v>593.5309861090818</v>
       </c>
       <c r="D9" t="n">
-        <v>471.6041411273256</v>
+        <v>444.5965764478305</v>
       </c>
       <c r="E9" t="n">
-        <v>312.3666861218701</v>
+        <v>285.359121442375</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V9" t="n">
-        <v>1595.273638474382</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W9" t="n">
-        <v>1341.03628174618</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X9" t="n">
-        <v>1170.967215854726</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y9" t="n">
-        <v>963.2069170897719</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.7470962355521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="C10" t="n">
-        <v>211.7470962355521</v>
+        <v>340.3757834483392</v>
       </c>
       <c r="D10" t="n">
-        <v>211.7470962355521</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="E10" t="n">
-        <v>211.7470962355521</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>211.7470962355521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>211.7470962355521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>265.6048588347121</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>265.6048588347121</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>211.7470962355521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7470962355521</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>139.234765840794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>139.234765840794</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.6357307816187</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>1021.293348608258</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>852.3571656803509</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>702.2405262680152</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>554.3274326856221</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.4374851877117</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>240.2413859025916</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>98.52955474478969</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1202.941813438498</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,19 +5528,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239595</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239595</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2228.516012088501</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2008.914547111442</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1719.83932045564</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1465.154832249753</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1175.737662212792</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.448174698413</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1854.980427813048</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.295939607161</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.8787695702</v>
+        <v>1244.570007809457</v>
       </c>
       <c r="X25" t="n">
-        <v>1082.889218672183</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0966395286528</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,19 +7257,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,40 +7418,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7576,25 +7576,25 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,64 +7780,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.310462545729</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>189.5105044445882</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>342.2291500161418</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>163.8711155441208</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,22 +22714,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849659</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>53.40527886852314</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856667</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.8900140445861</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>76.60007353871589</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>31.13893193492632</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.2691783702305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>73.62417772602126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>98.55338150863662</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>32.9077073655013</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.44497470121462</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>4.506629716718265</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26314,25 +26314,25 @@
         <v>169252.1408943217</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="H2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="I2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225015</v>
@@ -26341,16 +26341,16 @@
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
+        <v>205260.442466071</v>
+      </c>
+      <c r="M2" t="n">
         <v>205260.4424660712</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>205260.442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.046899653</v>
+        <v>216004.0468996476</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960589</v>
+        <v>167084.5112960653</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838333</v>
+        <v>50221.67010838207</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064525</v>
+        <v>59784.02116064662</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468109</v>
+        <v>221112.0537468124</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26436,25 +26436,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186735</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186738</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186737</v>
-      </c>
       <c r="L4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496088</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496086</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.5553049609</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496084</v>
@@ -26470,10 +26470,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790126</v>
+        <v>72511.97598790086</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675417.7149351297</v>
+        <v>-675777.7979508472</v>
       </c>
       <c r="C6" t="n">
-        <v>-304367.6341682943</v>
+        <v>-304367.6341682901</v>
       </c>
       <c r="D6" t="n">
-        <v>-221226.1407747581</v>
+        <v>-221226.1407747642</v>
       </c>
       <c r="E6" t="n">
-        <v>-515605.7835175383</v>
+        <v>-515640.5214429727</v>
       </c>
       <c r="F6" t="n">
-        <v>85837.42405672708</v>
+        <v>85802.68613129141</v>
       </c>
       <c r="G6" t="n">
-        <v>85837.42405672721</v>
+        <v>85802.68613129138</v>
       </c>
       <c r="H6" t="n">
-        <v>85837.42405672696</v>
+        <v>85802.68613129135</v>
       </c>
       <c r="I6" t="n">
-        <v>85837.42405672705</v>
+        <v>85802.68613129135</v>
       </c>
       <c r="J6" t="n">
-        <v>36772.47932818239</v>
+        <v>36737.74140274673</v>
       </c>
       <c r="K6" t="n">
-        <v>35615.7539483437</v>
+        <v>35581.01602290923</v>
       </c>
       <c r="L6" t="n">
-        <v>19494.75014654969</v>
+        <v>19494.75014654809</v>
       </c>
       <c r="M6" t="n">
-        <v>-77867.60924440331</v>
+        <v>-77867.60924440288</v>
       </c>
       <c r="N6" t="n">
+        <v>79278.77130719472</v>
+      </c>
+      <c r="O6" t="n">
+        <v>79278.77130719465</v>
+      </c>
+      <c r="P6" t="n">
         <v>79278.77130719469</v>
-      </c>
-      <c r="O6" t="n">
-        <v>79278.77130719459</v>
-      </c>
-      <c r="P6" t="n">
-        <v>79278.77130719466</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203975</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836639</v>
+        <v>716.4483122836597</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361412</v>
+        <v>382.6612299361364</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707591</v>
+        <v>167.9783713707549</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540201</v>
+        <v>137.2623522540255</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698211</v>
+        <v>195.1356427698163</v>
       </c>
       <c r="D4" t="n">
-        <v>159.453726790022</v>
+        <v>159.453726790028</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698212</v>
+        <v>195.1356427698163</v>
       </c>
       <c r="L4" t="n">
-        <v>159.453726790022</v>
+        <v>159.4537267900276</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698211</v>
+        <v>195.1356427698163</v>
       </c>
       <c r="L4" t="n">
-        <v>159.453726790022</v>
+        <v>159.453726790028</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.89779195143153</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>49.57276551208599</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265835</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.01503446809397</v>
+        <v>84.67632363876274</v>
       </c>
     </row>
     <row r="4">
@@ -27534,34 +27534,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213452</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.5862106527411</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>24.21481580557509</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>29.76131335876289</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9780130577769</v>
+        <v>309.9780130577771</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476387</v>
+        <v>99.43720189476453</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724284</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926212</v>
+        <v>143.3876437926216</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>28.94349348954739</v>
       </c>
     </row>
     <row r="6">
@@ -27695,19 +27695,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238329</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.8883134278783</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>119.4245119057925</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>57.15068898533897</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>61.45723574106502</v>
+        <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037442</v>
+        <v>116.5978353037444</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037885</v>
+        <v>35.65413415037938</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.3213064746126</v>
+        <v>43.32130647461324</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106941</v>
+        <v>119.2023528106944</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443856</v>
+        <v>201.5013289443858</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>225.9721427140909</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>109.6381178229448</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>74.22383331714539</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -27989,13 +27989,13 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>37.40460997093771</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>11.72708442654439</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28068,13 +28068,13 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>172.3904704158688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235833</v>
+        <v>2.880194220235816</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799023</v>
+        <v>29.49678905799005</v>
       </c>
       <c r="I5" t="n">
-        <v>111.038687675642</v>
+        <v>111.0386876756414</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997412</v>
+        <v>244.4528841997398</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423241</v>
+        <v>366.3715055423219</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098665</v>
+        <v>454.5162494098639</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739855</v>
+        <v>505.7369033739825</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022306</v>
+        <v>513.9202552022276</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247605</v>
+        <v>485.2803239247577</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126883</v>
+        <v>414.1755291126859</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004925</v>
+        <v>311.0285736004906</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868893</v>
+        <v>180.9230001868882</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362409</v>
+        <v>65.63242579362371</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908236</v>
+        <v>12.60805019908229</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188665</v>
+        <v>0.2304155376188652</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044107</v>
+        <v>1.541039766044098</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574177</v>
+        <v>14.88319984574169</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704493</v>
+        <v>53.05772878704462</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594567</v>
+        <v>145.5944631594558</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844118</v>
+        <v>248.8441274844104</v>
       </c>
       <c r="L6" t="n">
-        <v>334.601638675498</v>
+        <v>334.601638675496</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945968</v>
+        <v>390.4643301945945</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519716</v>
+        <v>400.7987591519693</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306784</v>
+        <v>366.6525622306763</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510015</v>
+        <v>294.2710058509998</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462618</v>
+        <v>196.7123743462607</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158066</v>
+        <v>95.67964442158009</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963504</v>
+        <v>28.62413775963488</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572518</v>
+        <v>6.211471688572481</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344808</v>
+        <v>0.1013841951344802</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970541</v>
+        <v>1.291955972970534</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513809</v>
+        <v>11.48666310513803</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351411</v>
+        <v>38.85263962351388</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901726</v>
+        <v>91.34128728901673</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505774</v>
+        <v>150.1017939505765</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178203</v>
+        <v>192.0786180178192</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902822</v>
+        <v>202.519971290281</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273922</v>
+        <v>197.704499027391</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522362</v>
+        <v>182.6121042522351</v>
       </c>
       <c r="P7" t="n">
-        <v>156.256202403637</v>
+        <v>156.2562024036361</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548332</v>
+        <v>108.1836951548326</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647541</v>
+        <v>58.09103856647507</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258661</v>
+        <v>22.51526909258648</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52017552087413</v>
+        <v>5.520175520874097</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839324</v>
+        <v>0.07047032579839282</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>170.9292585737929</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,16 +32078,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>395.1848490935923</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>463.4789474089069</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>434.178635838203</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305493</v>
+        <v>63.40697967305348</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973435</v>
+        <v>146.2816544973414</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398793</v>
+        <v>218.7498344398766</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467128</v>
+        <v>275.3906701467098</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056397</v>
+        <v>284.5071916056367</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030738</v>
+        <v>255.182112503071</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574188</v>
+        <v>182.9425333574164</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604297</v>
+        <v>88.72288372604115</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278997</v>
+        <v>18.75683649278912</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100528</v>
+        <v>111.0026885100514</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956238</v>
+        <v>196.0472588956218</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725784</v>
+        <v>248.3302962725762</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686383</v>
+        <v>269.4570470686359</v>
       </c>
       <c r="O6" t="n">
-        <v>224.056317786234</v>
+        <v>224.0563177862318</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366713</v>
+        <v>160.2965984366696</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026024032</v>
+        <v>56.73060026023919</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004201</v>
+        <v>21.08853578004113</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658205</v>
+        <v>57.19394173658091</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267715</v>
+        <v>63.59418734267595</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215897</v>
+        <v>70.0189545621578</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039342</v>
+        <v>44.15556580039234</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448943</v>
+        <v>18.5281983544885</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>44.09163190712619</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>253.050815171574</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>325.6375084345479</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>291.5823913937585</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
